--- a/data_group/significance_results_evapo_Wilcox_test.xlsx
+++ b/data_group/significance_results_evapo_Wilcox_test.xlsx
@@ -365,7 +365,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CBA_PF_vs_SF_beginning</t>
+          <t>CBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>EBA_PF_vs_SF_beginning</t>
+          <t>EBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -395,7 +395,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SBA_PF_vs_SF_beginning</t>
+          <t>SBA_PF_vs_SF_early</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">

--- a/data_group/significance_results_evapo_Wilcox_test.xlsx
+++ b/data_group/significance_results_evapo_Wilcox_test.xlsx
@@ -422,25 +422,25 @@
         <v>3.715691111961505E-12</v>
       </c>
       <c r="D2">
-        <v>1.724168103976302E-09</v>
+        <v>6.034588363917058E-09</v>
       </c>
       <c r="E2">
-        <v>0.2108564745329172</v>
+        <v>0.1322484566083852</v>
       </c>
       <c r="F2">
-        <v>0.2606456233119888</v>
+        <v>0.1682015162457082</v>
       </c>
       <c r="G2">
-        <v>0.197638611261904</v>
+        <v>0.2097163950369132</v>
       </c>
       <c r="H2">
-        <v>0.02574749034636714</v>
+        <v>0.2714864292585267</v>
       </c>
       <c r="I2">
-        <v>0.03358677936817663</v>
+        <v>0.3301725912712316</v>
       </c>
       <c r="J2">
-        <v>0.004405788308191945</v>
+        <v>0.8290614171954906</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         </is>
       </c>
       <c r="B3">
-        <v>2.721372170400607E-08</v>
+        <v>1.296887668807924E-07</v>
       </c>
       <c r="C3">
-        <v>5.933958705802524E-09</v>
+        <v>5.444230617245997E-08</v>
       </c>
       <c r="D3">
-        <v>7.150038918784527E-05</v>
+        <v>0.0001718280069901223</v>
       </c>
       <c r="E3">
-        <v>0.2826251858856131</v>
+        <v>0.08259208882034763</v>
       </c>
       <c r="F3">
-        <v>0.485206701385866</v>
+        <v>0.1530448937987301</v>
       </c>
       <c r="G3">
-        <v>0.3088306967785729</v>
+        <v>0.2097163950369132</v>
       </c>
       <c r="H3">
-        <v>0.003402101711758843</v>
+        <v>0.2017664566690998</v>
       </c>
       <c r="I3">
-        <v>0.01572689385883497</v>
+        <v>0.4696969580482781</v>
       </c>
       <c r="J3">
-        <v>0.01191631370790368</v>
+        <v>0.4950925727407126</v>
       </c>
     </row>
     <row r="4">
@@ -484,31 +484,31 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.892916849679224E-05</v>
+        <v>6.416213424825562E-05</v>
       </c>
       <c r="C4">
-        <v>1.892916849679224E-05</v>
+        <v>4.328577640269552E-05</v>
       </c>
       <c r="D4">
-        <v>0.01073733790341331</v>
+        <v>0.01191631370790368</v>
       </c>
       <c r="E4">
-        <v>0.03358677936817663</v>
+        <v>0.03583144753073163</v>
       </c>
       <c r="F4">
-        <v>0.1389281744810511</v>
+        <v>0.08259208882034763</v>
       </c>
       <c r="G4">
-        <v>0.1104798385695888</v>
+        <v>0.07691767795591596</v>
       </c>
       <c r="H4">
-        <v>0.01258972032513271</v>
+        <v>0.1682015162457082</v>
       </c>
       <c r="I4">
-        <v>0.01356929790130578</v>
+        <v>0.07814007473603325</v>
       </c>
       <c r="J4">
-        <v>0.002388284898433998</v>
+        <v>0.02600699995008533</v>
       </c>
     </row>
     <row r="5">
@@ -518,31 +518,31 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.0002451930910203741</v>
+        <v>0.0004789123656912421</v>
       </c>
       <c r="C5">
-        <v>0.0003444328727989022</v>
+        <v>0.0003848643370345933</v>
       </c>
       <c r="D5">
-        <v>0.04789096222977005</v>
+        <v>0.04048859217105265</v>
       </c>
       <c r="E5">
-        <v>0.001100141627497934</v>
+        <v>0.001967650039680115</v>
       </c>
       <c r="F5">
-        <v>0.01461387898167541</v>
+        <v>0.02404934662120388</v>
       </c>
       <c r="G5">
-        <v>0.006968323669802152</v>
+        <v>0.009660057844115721</v>
       </c>
       <c r="H5">
-        <v>0.07388109771988643</v>
+        <v>0.2714864292585267</v>
       </c>
       <c r="I5">
-        <v>0.0294486793945955</v>
+        <v>0.0872426804026897</v>
       </c>
       <c r="J5">
-        <v>0.002709317240637918</v>
+        <v>0.01780828405876413</v>
       </c>
     </row>
     <row r="6">
@@ -552,31 +552,31 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.0008991983117823423</v>
+        <v>0.0008116994116519924</v>
       </c>
       <c r="C6">
-        <v>0.0003444328727989022</v>
+        <v>0.0003848643370345933</v>
       </c>
       <c r="D6">
-        <v>0.09591444402001174</v>
+        <v>0.1029985671300972</v>
       </c>
       <c r="E6">
-        <v>1.640129837242925E-05</v>
+        <v>7.295285376150529E-05</v>
       </c>
       <c r="F6">
-        <v>6.416213424825562E-05</v>
+        <v>0.0001943367091634814</v>
       </c>
       <c r="G6">
-        <v>0.0002810238834352015</v>
+        <v>0.0007020941831999301</v>
       </c>
       <c r="H6">
-        <v>0.01951266891344059</v>
+        <v>0.02754577463715813</v>
       </c>
       <c r="I6">
-        <v>0.007899885422807675</v>
+        <v>0.01356929790130578</v>
       </c>
       <c r="J6">
-        <v>0.0003850394968118838</v>
+        <v>0.001234948335733806</v>
       </c>
     </row>
     <row r="7">
